--- a/dist/report.xlsx
+++ b/dist/report.xlsx
@@ -14,21 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>ОТЧЁТ ПО ПОСЕЩАЕМОСТИ</t>
   </si>
   <si>
-    <t>Детальный</t>
-  </si>
-  <si>
-    <t>от 27.02.2024 17:02:33</t>
+    <t>Краткий (по алфавиту)</t>
+  </si>
+  <si>
+    <t>от 27.06.2024 18:59:5</t>
   </si>
   <si>
     <t xml:space="preserve">по дисциплине: </t>
   </si>
   <si>
-    <t>Технология программирования CS-202, CS-204</t>
+    <t>Технология программирования  CS-202, CS-204</t>
   </si>
   <si>
     <t xml:space="preserve">группа: </t>
@@ -40,22 +40,16 @@
     <t>№</t>
   </si>
   <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Время</t>
-  </si>
-  <si>
-    <t>Фильтр по фамилии: ДЕКСКОЙПЕР МАНСИМ КЕРГЕВ</t>
-  </si>
-  <si>
     <t>ФИО</t>
   </si>
   <si>
-    <t>2024-01-29 08:15:49</t>
-  </si>
-  <si>
-    <t>2024-02-26 20:35:51</t>
+    <t>Количество посещений</t>
+  </si>
+  <si>
+    <t>2024-03-26 08:16:57</t>
+  </si>
+  <si>
+    <t>2024-05-10 19:36:07</t>
   </si>
   <si>
     <t xml:space="preserve">Дата и время начала анализа: </t>
@@ -64,43 +58,79 @@
     <t xml:space="preserve">Дата и время конца анализа: </t>
   </si>
   <si>
-    <t>2024-01-30</t>
-  </si>
-  <si>
-    <t>09:14:39</t>
-  </si>
-  <si>
-    <t>ДЕКСКОЙПЕР МАНСИМ КЕРГЕВ (СS-202)</t>
-  </si>
-  <si>
-    <t>2024-02-05</t>
-  </si>
-  <si>
-    <t>12:04:29</t>
-  </si>
-  <si>
-    <t>2024-02-06</t>
-  </si>
-  <si>
-    <t>10:15:25</t>
-  </si>
-  <si>
-    <t>2024-02-12</t>
-  </si>
-  <si>
-    <t>11:59:37</t>
-  </si>
-  <si>
-    <t>2024-02-13</t>
-  </si>
-  <si>
-    <t>09:15:06</t>
-  </si>
-  <si>
-    <t>2024-02-26</t>
-  </si>
-  <si>
-    <t>12:03:12</t>
+    <t>FAJOBI MICHAEL (СS-202)</t>
+  </si>
+  <si>
+    <t>11 (91%)</t>
+  </si>
+  <si>
+    <t>MUHAMMAD MUSTAPHA (СS-202)</t>
+  </si>
+  <si>
+    <t>АБДРАХМАНОВ ЖАНДОС БОРАНБАЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>5 (41%)</t>
+  </si>
+  <si>
+    <t>АБИЕВ АРЫН ОНДАРБЕКАВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>9 (75%)</t>
+  </si>
+  <si>
+    <t>АУБАКИРОВ МАДИ УЛАНОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>БЕЙСЕНОВ АМИР МАРАТОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>6 (50%)</t>
+  </si>
+  <si>
+    <t>ДЕКСКАЙМЕР МАКСИМ СЕРГЕЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>7 (58%)</t>
+  </si>
+  <si>
+    <t>ЗОЛОТОВ БОГДАН СЕРГЕЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>КАИР БОГДАН (СS-202)</t>
+  </si>
+  <si>
+    <t>КАПЕНОВ УАЛИХАН ТАЛГАТОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>12 (100%)</t>
+  </si>
+  <si>
+    <t>МАЛИМОН НИКИТА СЕРГЕЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>МУСИН ДАНИЯЛ КАНАТОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>8 (66%)</t>
+  </si>
+  <si>
+    <t>ПЕРЕВОЗЧИКОВ ВЛАДИСЛАВ ЮРЬЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>СОРОЧИНСКИЙ МАКСИМ ЕВГЕНЬЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>ТУКАЕВ ФАРХАТ ГАЗИНУРОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>ШАРИПОВ ИСЛАМ САДИБЕКОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>3 (25%)</t>
+  </si>
+  <si>
+    <t>ШУНГУЛОВ АЛДИЯР (СS-202)</t>
   </si>
 </sst>
 </file>
@@ -450,16 +480,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -491,26 +522,21 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,102 +546,251 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
         <v>18</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
+      <c r="B14" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
+      <c r="B15" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dist/report.xlsx
+++ b/dist/report.xlsx
@@ -22,7 +22,7 @@
     <t>Краткий (по алфавиту)</t>
   </si>
   <si>
-    <t>от 27.06.2024 18:59:5</t>
+    <t>от 27.06.2024 19:21:4</t>
   </si>
   <si>
     <t xml:space="preserve">по дисциплине: </t>

--- a/dist/report.xlsx
+++ b/dist/report.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="179">
   <si>
     <t>ОТЧЁТ ПО ПОСЕЩАЕМОСТИ</t>
   </si>
   <si>
-    <t>Краткий (по алфавиту)</t>
-  </si>
-  <si>
-    <t>от 27.06.2024 18:59:5</t>
+    <t>Детальный</t>
+  </si>
+  <si>
+    <t>от 03.07.2024 19:07:36</t>
   </si>
   <si>
     <t xml:space="preserve">по дисциплине: </t>
@@ -40,12 +40,15 @@
     <t>№</t>
   </si>
   <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
     <t>ФИО</t>
   </si>
   <si>
-    <t>Количество посещений</t>
-  </si>
-  <si>
     <t>2024-03-26 08:16:57</t>
   </si>
   <si>
@@ -58,79 +61,496 @@
     <t xml:space="preserve">Дата и время конца анализа: </t>
   </si>
   <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
+    <t>09:14:01</t>
+  </si>
+  <si>
+    <t>ДЕКСКАЙМЕР МАКСИМ СЕРГЕЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>09:14:10</t>
+  </si>
+  <si>
     <t>FAJOBI MICHAEL (СS-202)</t>
   </si>
   <si>
-    <t>11 (91%)</t>
+    <t>09:14:24</t>
+  </si>
+  <si>
+    <t>БЕЙСЕНОВ АМИР МАРАТОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>09:14:27</t>
+  </si>
+  <si>
+    <t>ТУКАЕВ ФАРХАТ ГАЗИНУРОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>09:14:40</t>
+  </si>
+  <si>
+    <t>МУСИН ДАНИЯЛ КАНАТОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>09:14:43</t>
+  </si>
+  <si>
+    <t>СОРОЧИНСКИЙ МАКСИМ ЕВГЕНЬЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>09:14:45</t>
+  </si>
+  <si>
+    <t>АУБАКИРОВ МАДИ УЛАНОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>09:14:48</t>
+  </si>
+  <si>
+    <t>АБИЕВ АРЫН ОНДАРБЕКАВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>09:14:51</t>
+  </si>
+  <si>
+    <t>МАЛИМОН НИКИТА СЕРГЕЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>09:15:08</t>
   </si>
   <si>
     <t>MUHAMMAD MUSTAPHA (СS-202)</t>
   </si>
   <si>
+    <t>09:34:08</t>
+  </si>
+  <si>
+    <t>ШАРИПОВ ИСЛАМ САДИБЕКОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>09:35:00</t>
+  </si>
+  <si>
+    <t>ПЕРЕВОЗЧИКОВ ВЛАДИСЛАВ ЮРЬЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>09:59:59</t>
+  </si>
+  <si>
+    <t>КАПЕНОВ УАЛИХАН ТАЛГАТОВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>11:20:05</t>
+  </si>
+  <si>
+    <t>ЗОЛОТОВ БОГДАН СЕРГЕЕВИЧ (СS-202)</t>
+  </si>
+  <si>
+    <t>11:20:11</t>
+  </si>
+  <si>
+    <t>11:20:14</t>
+  </si>
+  <si>
+    <t>11:20:17</t>
+  </si>
+  <si>
+    <t>11:20:18</t>
+  </si>
+  <si>
+    <t>11:20:21</t>
+  </si>
+  <si>
+    <t>ШУНГУЛОВ АЛДИЯР (СS-202)</t>
+  </si>
+  <si>
+    <t>11:20:23</t>
+  </si>
+  <si>
+    <t>КАИР БОГДАН (СS-202)</t>
+  </si>
+  <si>
+    <t>11:20:26</t>
+  </si>
+  <si>
+    <t>11:20:27</t>
+  </si>
+  <si>
+    <t>11:20:30</t>
+  </si>
+  <si>
+    <t>12:05:50</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>09:16:30</t>
+  </si>
+  <si>
+    <t>09:16:33</t>
+  </si>
+  <si>
     <t>АБДРАХМАНОВ ЖАНДОС БОРАНБАЕВИЧ (СS-202)</t>
   </si>
   <si>
-    <t>5 (41%)</t>
-  </si>
-  <si>
-    <t>АБИЕВ АРЫН ОНДАРБЕКАВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>9 (75%)</t>
-  </si>
-  <si>
-    <t>АУБАКИРОВ МАДИ УЛАНОВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>БЕЙСЕНОВ АМИР МАРАТОВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>6 (50%)</t>
-  </si>
-  <si>
-    <t>ДЕКСКАЙМЕР МАКСИМ СЕРГЕЕВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>7 (58%)</t>
-  </si>
-  <si>
-    <t>ЗОЛОТОВ БОГДАН СЕРГЕЕВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>КАИР БОГДАН (СS-202)</t>
-  </si>
-  <si>
-    <t>КАПЕНОВ УАЛИХАН ТАЛГАТОВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>12 (100%)</t>
-  </si>
-  <si>
-    <t>МАЛИМОН НИКИТА СЕРГЕЕВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>МУСИН ДАНИЯЛ КАНАТОВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>8 (66%)</t>
-  </si>
-  <si>
-    <t>ПЕРЕВОЗЧИКОВ ВЛАДИСЛАВ ЮРЬЕВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>СОРОЧИНСКИЙ МАКСИМ ЕВГЕНЬЕВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>ТУКАЕВ ФАРХАТ ГАЗИНУРОВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>ШАРИПОВ ИСЛАМ САДИБЕКОВИЧ (СS-202)</t>
-  </si>
-  <si>
-    <t>3 (25%)</t>
-  </si>
-  <si>
-    <t>ШУНГУЛОВ АЛДИЯР (СS-202)</t>
+    <t>09:16:37</t>
+  </si>
+  <si>
+    <t>09:16:42</t>
+  </si>
+  <si>
+    <t>09:16:44</t>
+  </si>
+  <si>
+    <t>09:16:49</t>
+  </si>
+  <si>
+    <t>09:16:53</t>
+  </si>
+  <si>
+    <t>09:16:55</t>
+  </si>
+  <si>
+    <t>09:16:58</t>
+  </si>
+  <si>
+    <t>09:17:04</t>
+  </si>
+  <si>
+    <t>09:24:55</t>
+  </si>
+  <si>
+    <t>09:39:21</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>12:00:20</t>
+  </si>
+  <si>
+    <t>12:00:46</t>
+  </si>
+  <si>
+    <t>12:00:50</t>
+  </si>
+  <si>
+    <t>12:00:52</t>
+  </si>
+  <si>
+    <t>12:00:59</t>
+  </si>
+  <si>
+    <t>12:01:01</t>
+  </si>
+  <si>
+    <t>12:01:08</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>09:14:00</t>
+  </si>
+  <si>
+    <t>09:14:06</t>
+  </si>
+  <si>
+    <t>09:14:12</t>
+  </si>
+  <si>
+    <t>09:14:19</t>
+  </si>
+  <si>
+    <t>09:14:23</t>
+  </si>
+  <si>
+    <t>09:14:30</t>
+  </si>
+  <si>
+    <t>09:14:35</t>
+  </si>
+  <si>
+    <t>09:14:37</t>
+  </si>
+  <si>
+    <t>09:14:52</t>
+  </si>
+  <si>
+    <t>09:18:27</t>
+  </si>
+  <si>
+    <t>09:35:02</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>10:52:46</t>
+  </si>
+  <si>
+    <t>10:52:53</t>
+  </si>
+  <si>
+    <t>10:52:57</t>
+  </si>
+  <si>
+    <t>10:52:59</t>
+  </si>
+  <si>
+    <t>10:53:01</t>
+  </si>
+  <si>
+    <t>10:53:04</t>
+  </si>
+  <si>
+    <t>10:53:05</t>
+  </si>
+  <si>
+    <t>10:53:08</t>
+  </si>
+  <si>
+    <t>10:53:12</t>
+  </si>
+  <si>
+    <t>10:53:13</t>
+  </si>
+  <si>
+    <t>10:53:16</t>
+  </si>
+  <si>
+    <t>10:53:19</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>09:12:55</t>
+  </si>
+  <si>
+    <t>09:12:59</t>
+  </si>
+  <si>
+    <t>09:13:02</t>
+  </si>
+  <si>
+    <t>09:13:04</t>
+  </si>
+  <si>
+    <t>09:13:11</t>
+  </si>
+  <si>
+    <t>09:13:13</t>
+  </si>
+  <si>
+    <t>09:13:20</t>
+  </si>
+  <si>
+    <t>09:13:25</t>
+  </si>
+  <si>
+    <t>09:13:27</t>
+  </si>
+  <si>
+    <t>09:13:31</t>
+  </si>
+  <si>
+    <t>09:13:34</t>
+  </si>
+  <si>
+    <t>09:13:36</t>
+  </si>
+  <si>
+    <t>09:26:15</t>
+  </si>
+  <si>
+    <t>09:26:22</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>12:02:12</t>
+  </si>
+  <si>
+    <t>12:02:14</t>
+  </si>
+  <si>
+    <t>12:02:20</t>
+  </si>
+  <si>
+    <t>12:02:21</t>
+  </si>
+  <si>
+    <t>12:02:24</t>
+  </si>
+  <si>
+    <t>12:02:25</t>
+  </si>
+  <si>
+    <t>12:02:27</t>
+  </si>
+  <si>
+    <t>12:02:30</t>
+  </si>
+  <si>
+    <t>12:02:36</t>
+  </si>
+  <si>
+    <t>12:02:38</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
+    <t>09:13:03</t>
+  </si>
+  <si>
+    <t>09:13:07</t>
+  </si>
+  <si>
+    <t>09:13:10</t>
+  </si>
+  <si>
+    <t>09:13:14</t>
+  </si>
+  <si>
+    <t>09:13:22</t>
+  </si>
+  <si>
+    <t>09:13:30</t>
+  </si>
+  <si>
+    <t>09:13:33</t>
+  </si>
+  <si>
+    <t>09:47:16</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>10:55:20</t>
+  </si>
+  <si>
+    <t>10:55:25</t>
+  </si>
+  <si>
+    <t>10:55:29</t>
+  </si>
+  <si>
+    <t>10:55:31</t>
+  </si>
+  <si>
+    <t>10:55:33</t>
+  </si>
+  <si>
+    <t>10:55:34</t>
+  </si>
+  <si>
+    <t>10:55:38</t>
+  </si>
+  <si>
+    <t>10:55:39</t>
+  </si>
+  <si>
+    <t>10:55:41</t>
+  </si>
+  <si>
+    <t>10:55:49</t>
+  </si>
+  <si>
+    <t>10:55:51</t>
+  </si>
+  <si>
+    <t>10:55:53</t>
+  </si>
+  <si>
+    <t>10:55:57</t>
+  </si>
+  <si>
+    <t>10:55:58</t>
+  </si>
+  <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
+    <t>09:12:51</t>
+  </si>
+  <si>
+    <t>09:13:19</t>
+  </si>
+  <si>
+    <t>09:13:38</t>
+  </si>
+  <si>
+    <t>09:13:43</t>
+  </si>
+  <si>
+    <t>09:13:44</t>
+  </si>
+  <si>
+    <t>09:13:47</t>
+  </si>
+  <si>
+    <t>09:13:50</t>
+  </si>
+  <si>
+    <t>09:13:54</t>
+  </si>
+  <si>
+    <t>09:31:20</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>11:18:45</t>
+  </si>
+  <si>
+    <t>11:19:09</t>
+  </si>
+  <si>
+    <t>11:19:13</t>
+  </si>
+  <si>
+    <t>11:19:21</t>
+  </si>
+  <si>
+    <t>11:19:26</t>
+  </si>
+  <si>
+    <t>11:19:29</t>
+  </si>
+  <si>
+    <t>11:19:31</t>
+  </si>
+  <si>
+    <t>11:19:35</t>
+  </si>
+  <si>
+    <t>11:19:37</t>
+  </si>
+  <si>
+    <t>11:19:39</t>
+  </si>
+  <si>
+    <t>11:19:40</t>
+  </si>
+  <si>
+    <t>11:19:44</t>
+  </si>
+  <si>
+    <t>11:19:45</t>
+  </si>
+  <si>
+    <t>11:19:59</t>
   </si>
 </sst>
 </file>
@@ -174,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,9 +603,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,17 +897,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -525,18 +941,20 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,251 +964,2048 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
-        <v>27</v>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
-        <v>28</v>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
-        <v>30</v>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
-        <v>33</v>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
-        <v>34</v>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
-        <v>35</v>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>16</v>
       </c>
-      <c r="B26" t="s">
-        <v>36</v>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>17</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>31</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>34</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>35</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>36</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>37</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
         <v>38</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>39</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>40</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>41</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>44</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>46</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>47</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>48</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>49</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>51</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>52</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>54</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>55</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>56</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>57</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>58</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>59</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>60</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>61</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>62</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>63</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>64</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>65</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>66</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>67</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>68</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>69</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>70</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>71</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>72</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>73</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>74</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>75</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>76</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>77</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>78</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>79</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>80</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>81</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>82</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>83</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>84</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>85</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>86</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>87</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>88</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>89</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>90</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>91</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>92</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>93</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>94</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>95</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>96</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>97</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>98</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>99</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>100</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>101</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>102</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>103</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>104</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>105</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>106</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>107</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>108</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>109</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>110</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>111</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>112</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>113</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D123" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>114</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D124" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>115</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>116</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>117</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D127" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>118</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>119</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>120</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D130" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>121</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>122</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D132" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>123</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>124</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>125</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D135" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>126</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>127</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>128</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>129</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D139" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>130</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>131</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>132</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D142" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>133</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D143" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>134</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>135</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>136</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D146" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>137</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D147" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>138</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>139</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D149" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>140</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>141</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>142</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>143</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>144</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>145</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D155" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
